--- a/train_predictions.xlsx
+++ b/train_predictions.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,2344 +450,2344 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" s="2" t="n">
+        <v>31778</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" s="2" t="n">
+        <v>31809</v>
       </c>
       <c r="B3" t="n">
         <v>-289.5514943298212</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
+      <c r="A4" s="2" t="n">
+        <v>31837</v>
       </c>
       <c r="B4" t="n">
         <v>-275.1968147312275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" s="2" t="n">
+        <v>31868</v>
       </c>
       <c r="B5" t="n">
         <v>-325.9180364508231</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
+      <c r="A6" s="2" t="n">
+        <v>31898</v>
       </c>
       <c r="B6" t="n">
         <v>-298.815375336057</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
+      <c r="A7" s="2" t="n">
+        <v>31929</v>
       </c>
       <c r="B7" t="n">
         <v>-278.7984459943569</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
+      <c r="A8" s="2" t="n">
+        <v>31959</v>
       </c>
       <c r="B8" t="n">
         <v>-77.4032054010778</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
+      <c r="A9" s="2" t="n">
+        <v>31990</v>
       </c>
       <c r="B9" t="n">
         <v>111.3857306294491</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
+      <c r="A10" s="2" t="n">
+        <v>32021</v>
       </c>
       <c r="B10" t="n">
         <v>146.9373634490126</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
+      <c r="A11" s="2" t="n">
+        <v>32051</v>
       </c>
       <c r="B11" t="n">
         <v>185.6757928073199</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
+      <c r="A12" s="2" t="n">
+        <v>32082</v>
       </c>
       <c r="B12" t="n">
         <v>110.2849040143806</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
+      <c r="A13" s="2" t="n">
+        <v>32112</v>
       </c>
       <c r="B13" t="n">
         <v>78.35788688517184</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
+      <c r="A14" s="2" t="n">
+        <v>32143</v>
       </c>
       <c r="B14" t="n">
         <v>43.25203535391204</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>13</v>
+      <c r="A15" s="2" t="n">
+        <v>32174</v>
       </c>
       <c r="B15" t="n">
         <v>54.37706585893136</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>14</v>
+      <c r="A16" s="2" t="n">
+        <v>32203</v>
       </c>
       <c r="B16" t="n">
         <v>-0.3249316448615005</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
+      <c r="A17" s="2" t="n">
+        <v>32234</v>
       </c>
       <c r="B17" t="n">
         <v>23.0240712332899</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>16</v>
+      <c r="A18" s="2" t="n">
+        <v>32264</v>
       </c>
       <c r="B18" t="n">
         <v>-18.84358572243362</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>17</v>
+      <c r="A19" s="2" t="n">
+        <v>32295</v>
       </c>
       <c r="B19" t="n">
         <v>-123.0812103145517</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>18</v>
+      <c r="A20" s="2" t="n">
+        <v>32325</v>
       </c>
       <c r="B20" t="n">
         <v>-285.0836159965309</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>19</v>
+      <c r="A21" s="2" t="n">
+        <v>32356</v>
       </c>
       <c r="B21" t="n">
         <v>-275.9900139232595</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>20</v>
+      <c r="A22" s="2" t="n">
+        <v>32387</v>
       </c>
       <c r="B22" t="n">
         <v>-213.4514692133276</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>21</v>
+      <c r="A23" s="2" t="n">
+        <v>32417</v>
       </c>
       <c r="B23" t="n">
         <v>-229.0386324945186</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>22</v>
+      <c r="A24" s="2" t="n">
+        <v>32448</v>
       </c>
       <c r="B24" t="n">
         <v>-252.6763501636088</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>23</v>
+      <c r="A25" s="2" t="n">
+        <v>32478</v>
       </c>
       <c r="B25" t="n">
         <v>-236.9388592672705</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>24</v>
+      <c r="A26" s="2" t="n">
+        <v>32509</v>
       </c>
       <c r="B26" t="n">
         <v>-253.0671634057962</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>25</v>
+      <c r="A27" s="2" t="n">
+        <v>32540</v>
       </c>
       <c r="B27" t="n">
         <v>-260.7787159163005</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>26</v>
+      <c r="A28" s="2" t="n">
+        <v>32568</v>
       </c>
       <c r="B28" t="n">
         <v>-170.0617839513911</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>27</v>
+      <c r="A29" s="2" t="n">
+        <v>32599</v>
       </c>
       <c r="B29" t="n">
         <v>-168.140440076127</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>28</v>
+      <c r="A30" s="2" t="n">
+        <v>32629</v>
       </c>
       <c r="B30" t="n">
         <v>-324.495566044151</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>29</v>
+      <c r="A31" s="2" t="n">
+        <v>32660</v>
       </c>
       <c r="B31" t="n">
         <v>-295.3504341569142</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
+      <c r="A32" s="2" t="n">
+        <v>32690</v>
       </c>
       <c r="B32" t="n">
         <v>-298.7663800330917</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>31</v>
+      <c r="A33" s="2" t="n">
+        <v>32721</v>
       </c>
       <c r="B33" t="n">
         <v>-355.7150558247839</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>32</v>
+      <c r="A34" s="2" t="n">
+        <v>32752</v>
       </c>
       <c r="B34" t="n">
         <v>-278.434327196</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>33</v>
+      <c r="A35" s="2" t="n">
+        <v>32782</v>
       </c>
       <c r="B35" t="n">
         <v>-285.4427823048189</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>34</v>
+      <c r="A36" s="2" t="n">
+        <v>32813</v>
       </c>
       <c r="B36" t="n">
         <v>-285.8447707859896</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>35</v>
+      <c r="A37" s="2" t="n">
+        <v>32843</v>
       </c>
       <c r="B37" t="n">
         <v>-261.5981432563139</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>36</v>
+      <c r="A38" s="2" t="n">
+        <v>32874</v>
       </c>
       <c r="B38" t="n">
         <v>-57.12729832840913</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>37</v>
+      <c r="A39" s="2" t="n">
+        <v>32905</v>
       </c>
       <c r="B39" t="n">
         <v>160.610564890875</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>38</v>
+      <c r="A40" s="2" t="n">
+        <v>32933</v>
       </c>
       <c r="B40" t="n">
         <v>68.37893927601594</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>39</v>
+      <c r="A41" s="2" t="n">
+        <v>32964</v>
       </c>
       <c r="B41" t="n">
         <v>204.516455310643</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>40</v>
+      <c r="A42" s="2" t="n">
+        <v>32994</v>
       </c>
       <c r="B42" t="n">
         <v>137.2889048464282</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>41</v>
+      <c r="A43" s="2" t="n">
+        <v>33025</v>
       </c>
       <c r="B43" t="n">
         <v>149.3452900091723</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>42</v>
+      <c r="A44" s="2" t="n">
+        <v>33055</v>
       </c>
       <c r="B44" t="n">
         <v>183.044338946939</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>43</v>
+      <c r="A45" s="2" t="n">
+        <v>33086</v>
       </c>
       <c r="B45" t="n">
         <v>119.6858533630527</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>44</v>
+      <c r="A46" s="2" t="n">
+        <v>33117</v>
       </c>
       <c r="B46" t="n">
         <v>119.9115889117636</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>45</v>
+      <c r="A47" s="2" t="n">
+        <v>33147</v>
       </c>
       <c r="B47" t="n">
         <v>91.15522973351914</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>46</v>
+      <c r="A48" s="2" t="n">
+        <v>33178</v>
       </c>
       <c r="B48" t="n">
         <v>71.35441948794147</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>47</v>
+      <c r="A49" s="2" t="n">
+        <v>33208</v>
       </c>
       <c r="B49" t="n">
         <v>62.23572855353044</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>48</v>
+      <c r="A50" s="2" t="n">
+        <v>33239</v>
       </c>
       <c r="B50" t="n">
         <v>33.82398101179243</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>49</v>
+      <c r="A51" s="2" t="n">
+        <v>33270</v>
       </c>
       <c r="B51" t="n">
         <v>30.55972742149378</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>50</v>
+      <c r="A52" s="2" t="n">
+        <v>33298</v>
       </c>
       <c r="B52" t="n">
         <v>73.85455101010234</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>51</v>
+      <c r="A53" s="2" t="n">
+        <v>33329</v>
       </c>
       <c r="B53" t="n">
         <v>41.88526481691115</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>52</v>
+      <c r="A54" s="2" t="n">
+        <v>33359</v>
       </c>
       <c r="B54" t="n">
         <v>-133.2933530561258</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>53</v>
+      <c r="A55" s="2" t="n">
+        <v>33390</v>
       </c>
       <c r="B55" t="n">
         <v>-322.9991780882715</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>54</v>
+      <c r="A56" s="2" t="n">
+        <v>33420</v>
       </c>
       <c r="B56" t="n">
         <v>-308.4427068275047</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>55</v>
+      <c r="A57" s="2" t="n">
+        <v>33451</v>
       </c>
       <c r="B57" t="n">
         <v>-274.0492639653334</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>56</v>
+      <c r="A58" s="2" t="n">
+        <v>33482</v>
       </c>
       <c r="B58" t="n">
         <v>-329.2915431722424</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>57</v>
+      <c r="A59" s="2" t="n">
+        <v>33512</v>
       </c>
       <c r="B59" t="n">
         <v>-267.7123856144089</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>58</v>
+      <c r="A60" s="2" t="n">
+        <v>33543</v>
       </c>
       <c r="B60" t="n">
         <v>-252.6723252287286</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>59</v>
+      <c r="A61" s="2" t="n">
+        <v>33573</v>
       </c>
       <c r="B61" t="n">
         <v>-245.6790437132513</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>60</v>
+      <c r="A62" s="2" t="n">
+        <v>33604</v>
       </c>
       <c r="B62" t="n">
         <v>-316.283193132862</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>61</v>
+      <c r="A63" s="2" t="n">
+        <v>33635</v>
       </c>
       <c r="B63" t="n">
         <v>-253.0571329179159</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>62</v>
+      <c r="A64" s="2" t="n">
+        <v>33664</v>
       </c>
       <c r="B64" t="n">
         <v>-262.1930893274993</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>63</v>
+      <c r="A65" s="2" t="n">
+        <v>33695</v>
       </c>
       <c r="B65" t="n">
         <v>-261.2997446488764</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>64</v>
+      <c r="A66" s="2" t="n">
+        <v>33725</v>
       </c>
       <c r="B66" t="n">
         <v>-262.9399841892856</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>65</v>
+      <c r="A67" s="2" t="n">
+        <v>33756</v>
       </c>
       <c r="B67" t="n">
         <v>-259.6799273385725</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>66</v>
+      <c r="A68" s="2" t="n">
+        <v>33786</v>
       </c>
       <c r="B68" t="n">
         <v>104.2374317943943</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>67</v>
+      <c r="A69" s="2" t="n">
+        <v>33817</v>
       </c>
       <c r="B69" t="n">
         <v>95.89544206466311</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>68</v>
+      <c r="A70" s="2" t="n">
+        <v>33848</v>
       </c>
       <c r="B70" t="n">
         <v>104.6832092121668</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>69</v>
+      <c r="A71" s="2" t="n">
+        <v>33878</v>
       </c>
       <c r="B71" t="n">
         <v>125.0306615024923</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>70</v>
+      <c r="A72" s="2" t="n">
+        <v>33909</v>
       </c>
       <c r="B72" t="n">
         <v>180.8711511511557</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>71</v>
+      <c r="A73" s="2" t="n">
+        <v>33939</v>
       </c>
       <c r="B73" t="n">
         <v>165.0504895820317</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>72</v>
+      <c r="A74" s="2" t="n">
+        <v>33970</v>
       </c>
       <c r="B74" t="n">
         <v>189.006658055355</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>73</v>
+      <c r="A75" s="2" t="n">
+        <v>34001</v>
       </c>
       <c r="B75" t="n">
         <v>146.8987622508912</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>74</v>
+      <c r="A76" s="2" t="n">
+        <v>34029</v>
       </c>
       <c r="B76" t="n">
         <v>166.7077232532833</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>75</v>
+      <c r="A77" s="2" t="n">
+        <v>34060</v>
       </c>
       <c r="B77" t="n">
         <v>159.8873369608615</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>76</v>
+      <c r="A78" s="2" t="n">
+        <v>34090</v>
       </c>
       <c r="B78" t="n">
         <v>-4.159505815986421</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>77</v>
+      <c r="A79" s="2" t="n">
+        <v>34121</v>
       </c>
       <c r="B79" t="n">
         <v>17.61095934261927</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>78</v>
+      <c r="A80" s="2" t="n">
+        <v>34151</v>
       </c>
       <c r="B80" t="n">
         <v>-109.0397860562605</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>79</v>
+      <c r="A81" s="2" t="n">
+        <v>34182</v>
       </c>
       <c r="B81" t="n">
         <v>-269.101448547752</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>80</v>
+      <c r="A82" s="2" t="n">
+        <v>34213</v>
       </c>
       <c r="B82" t="n">
         <v>-179.3279108838894</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>81</v>
+      <c r="A83" s="2" t="n">
+        <v>34243</v>
       </c>
       <c r="B83" t="n">
         <v>-214.8552084887058</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>82</v>
+      <c r="A84" s="2" t="n">
+        <v>34274</v>
       </c>
       <c r="B84" t="n">
         <v>-297.1003277329905</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>83</v>
+      <c r="A85" s="2" t="n">
+        <v>34304</v>
       </c>
       <c r="B85" t="n">
         <v>-268.0648069759997</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>84</v>
+      <c r="A86" s="2" t="n">
+        <v>34335</v>
       </c>
       <c r="B86" t="n">
         <v>-308.8733270861246</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>85</v>
+      <c r="A87" s="2" t="n">
+        <v>34366</v>
       </c>
       <c r="B87" t="n">
         <v>-338.2220574783666</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>86</v>
+      <c r="A88" s="2" t="n">
+        <v>34394</v>
       </c>
       <c r="B88" t="n">
         <v>-270.1939621767829</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>87</v>
+      <c r="A89" s="2" t="n">
+        <v>34425</v>
       </c>
       <c r="B89" t="n">
         <v>-302.964197456545</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>88</v>
+      <c r="A90" s="2" t="n">
+        <v>34455</v>
       </c>
       <c r="B90" t="n">
         <v>-292.76857992619</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>89</v>
+      <c r="A91" s="2" t="n">
+        <v>34486</v>
       </c>
       <c r="B91" t="n">
         <v>-298.1013540242196</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>90</v>
+      <c r="A92" s="2" t="n">
+        <v>34516</v>
       </c>
       <c r="B92" t="n">
         <v>-310.172492523262</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>91</v>
+      <c r="A93" s="2" t="n">
+        <v>34547</v>
       </c>
       <c r="B93" t="n">
         <v>-308.6437945512723</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>92</v>
+      <c r="A94" s="2" t="n">
+        <v>34578</v>
       </c>
       <c r="B94" t="n">
         <v>-183.190243374097</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>93</v>
+      <c r="A95" s="2" t="n">
+        <v>34608</v>
       </c>
       <c r="B95" t="n">
         <v>58.47370842970565</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>94</v>
+      <c r="A96" s="2" t="n">
+        <v>34639</v>
       </c>
       <c r="B96" t="n">
         <v>150.3114426067104</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
+      <c r="A97" s="2" t="n">
+        <v>34669</v>
       </c>
       <c r="B97" t="n">
         <v>157.0748253160604</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>96</v>
+      <c r="A98" s="2" t="n">
+        <v>34700</v>
       </c>
       <c r="B98" t="n">
         <v>196.404671185872</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>97</v>
+      <c r="A99" s="2" t="n">
+        <v>34731</v>
       </c>
       <c r="B99" t="n">
         <v>190.9338355621202</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>98</v>
+      <c r="A100" s="2" t="n">
+        <v>34759</v>
       </c>
       <c r="B100" t="n">
         <v>88.57699384410486</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>99</v>
+      <c r="A101" s="2" t="n">
+        <v>34790</v>
       </c>
       <c r="B101" t="n">
         <v>113.7287147662919</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>100</v>
+      <c r="A102" s="2" t="n">
+        <v>34820</v>
       </c>
       <c r="B102" t="n">
         <v>154.7009139530091</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>101</v>
+      <c r="A103" s="2" t="n">
+        <v>34851</v>
       </c>
       <c r="B103" t="n">
         <v>144.3380853902501</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>102</v>
+      <c r="A104" s="2" t="n">
+        <v>34881</v>
       </c>
       <c r="B104" t="n">
         <v>119.459789565896</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>103</v>
+      <c r="A105" s="2" t="n">
+        <v>34912</v>
       </c>
       <c r="B105" t="n">
         <v>52.54724771123938</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>104</v>
+      <c r="A106" s="2" t="n">
+        <v>34943</v>
       </c>
       <c r="B106" t="n">
         <v>7.840010805083011</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>105</v>
+      <c r="A107" s="2" t="n">
+        <v>34973</v>
       </c>
       <c r="B107" t="n">
         <v>-62.42291624555301</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>106</v>
+      <c r="A108" s="2" t="n">
+        <v>35004</v>
       </c>
       <c r="B108" t="n">
         <v>-174.0101650326617</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>107</v>
+      <c r="A109" s="2" t="n">
+        <v>35034</v>
       </c>
       <c r="B109" t="n">
         <v>-225.5552874498779</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>108</v>
+      <c r="A110" s="2" t="n">
+        <v>35065</v>
       </c>
       <c r="B110" t="n">
         <v>-250.7039380638878</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>109</v>
+      <c r="A111" s="2" t="n">
+        <v>35096</v>
       </c>
       <c r="B111" t="n">
         <v>-277.0071489751413</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>110</v>
+      <c r="A112" s="2" t="n">
+        <v>35125</v>
       </c>
       <c r="B112" t="n">
         <v>-309.0864251841036</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>111</v>
+      <c r="A113" s="2" t="n">
+        <v>35156</v>
       </c>
       <c r="B113" t="n">
         <v>-291.5973605258429</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>112</v>
+      <c r="A114" s="2" t="n">
+        <v>35186</v>
       </c>
       <c r="B114" t="n">
         <v>-300.9015932647624</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>113</v>
+      <c r="A115" s="2" t="n">
+        <v>35217</v>
       </c>
       <c r="B115" t="n">
         <v>-307.3049429180259</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>114</v>
+      <c r="A116" s="2" t="n">
+        <v>35247</v>
       </c>
       <c r="B116" t="n">
         <v>-323.5886958324644</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>115</v>
+      <c r="A117" s="2" t="n">
+        <v>35278</v>
       </c>
       <c r="B117" t="n">
         <v>-310.4523898389785</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>116</v>
+      <c r="A118" s="2" t="n">
+        <v>35309</v>
       </c>
       <c r="B118" t="n">
         <v>-320.8108790238313</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>117</v>
+      <c r="A119" s="2" t="n">
+        <v>35339</v>
       </c>
       <c r="B119" t="n">
         <v>-313.3165809033881</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>118</v>
+      <c r="A120" s="2" t="n">
+        <v>35370</v>
       </c>
       <c r="B120" t="n">
         <v>-225.2271048760422</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>119</v>
+      <c r="A121" s="2" t="n">
+        <v>35400</v>
       </c>
       <c r="B121" t="n">
         <v>82.67711980406114</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>120</v>
+      <c r="A122" s="2" t="n">
+        <v>35431</v>
       </c>
       <c r="B122" t="n">
         <v>137.0200788496734</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>121</v>
+      <c r="A123" s="2" t="n">
+        <v>35462</v>
       </c>
       <c r="B123" t="n">
         <v>96.44150695598958</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>122</v>
+      <c r="A124" s="2" t="n">
+        <v>35490</v>
       </c>
       <c r="B124" t="n">
         <v>131.4064210635121</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>123</v>
+      <c r="A125" s="2" t="n">
+        <v>35521</v>
       </c>
       <c r="B125" t="n">
         <v>150.2238872235905</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>124</v>
+      <c r="A126" s="2" t="n">
+        <v>35551</v>
       </c>
       <c r="B126" t="n">
         <v>187.2035255483711</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>125</v>
+      <c r="A127" s="2" t="n">
+        <v>35582</v>
       </c>
       <c r="B127" t="n">
         <v>146.8976000344359</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>126</v>
+      <c r="A128" s="2" t="n">
+        <v>35612</v>
       </c>
       <c r="B128" t="n">
         <v>161.9995847375324</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>127</v>
+      <c r="A129" s="2" t="n">
+        <v>35643</v>
       </c>
       <c r="B129" t="n">
         <v>118.2667769419005</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>128</v>
+      <c r="A130" s="2" t="n">
+        <v>35674</v>
       </c>
       <c r="B130" t="n">
         <v>91.80224784969204</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>129</v>
+      <c r="A131" s="2" t="n">
+        <v>35704</v>
       </c>
       <c r="B131" t="n">
         <v>52.68543221895887</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>130</v>
+      <c r="A132" s="2" t="n">
+        <v>35735</v>
       </c>
       <c r="B132" t="n">
         <v>-39.00138680895915</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>131</v>
+      <c r="A133" s="2" t="n">
+        <v>35765</v>
       </c>
       <c r="B133" t="n">
         <v>-161.6316786287244</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>132</v>
+      <c r="A134" s="2" t="n">
+        <v>35796</v>
       </c>
       <c r="B134" t="n">
         <v>-188.4480288419521</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>133</v>
+      <c r="A135" s="2" t="n">
+        <v>35827</v>
       </c>
       <c r="B135" t="n">
         <v>-247.9851946252082</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>134</v>
+      <c r="A136" s="2" t="n">
+        <v>35855</v>
       </c>
       <c r="B136" t="n">
         <v>-256.5124373137764</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>135</v>
+      <c r="A137" s="2" t="n">
+        <v>35886</v>
       </c>
       <c r="B137" t="n">
         <v>-278.6550365732382</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>136</v>
+      <c r="A138" s="2" t="n">
+        <v>35916</v>
       </c>
       <c r="B138" t="n">
         <v>-301.9763596499315</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>137</v>
+      <c r="A139" s="2" t="n">
+        <v>35947</v>
       </c>
       <c r="B139" t="n">
         <v>-290.5790549475763</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>138</v>
+      <c r="A140" s="2" t="n">
+        <v>35977</v>
       </c>
       <c r="B140" t="n">
         <v>-301.1812328327544</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>139</v>
+      <c r="A141" s="2" t="n">
+        <v>36008</v>
       </c>
       <c r="B141" t="n">
         <v>-290.9584328667181</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>140</v>
+      <c r="A142" s="2" t="n">
+        <v>36039</v>
       </c>
       <c r="B142" t="n">
         <v>-298.6121836600148</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>141</v>
+      <c r="A143" s="2" t="n">
+        <v>36069</v>
       </c>
       <c r="B143" t="n">
         <v>-209.7585498391524</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>142</v>
+      <c r="A144" s="2" t="n">
+        <v>36100</v>
       </c>
       <c r="B144" t="n">
         <v>-1.411046865090555</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>143</v>
+      <c r="A145" s="2" t="n">
+        <v>36130</v>
       </c>
       <c r="B145" t="n">
         <v>144.3636246686075</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>144</v>
+      <c r="A146" s="2" t="n">
+        <v>36161</v>
       </c>
       <c r="B146" t="n">
         <v>177.1499105192478</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>145</v>
+      <c r="A147" s="2" t="n">
+        <v>36192</v>
       </c>
       <c r="B147" t="n">
         <v>102.7603930593739</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>146</v>
+      <c r="A148" s="2" t="n">
+        <v>36220</v>
       </c>
       <c r="B148" t="n">
         <v>183.5955233686475</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>147</v>
+      <c r="A149" s="2" t="n">
+        <v>36251</v>
       </c>
       <c r="B149" t="n">
         <v>57.87274392593039</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>148</v>
+      <c r="A150" s="2" t="n">
+        <v>36281</v>
       </c>
       <c r="B150" t="n">
         <v>170.6603897931871</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>149</v>
+      <c r="A151" s="2" t="n">
+        <v>36312</v>
       </c>
       <c r="B151" t="n">
         <v>102.1527181769477</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>150</v>
+      <c r="A152" s="2" t="n">
+        <v>36342</v>
       </c>
       <c r="B152" t="n">
         <v>110.055700444716</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>151</v>
+      <c r="A153" s="2" t="n">
+        <v>36373</v>
       </c>
       <c r="B153" t="n">
         <v>50.27704661937079</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>152</v>
+      <c r="A154" s="2" t="n">
+        <v>36404</v>
       </c>
       <c r="B154" t="n">
         <v>73.42914576487385</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>153</v>
+      <c r="A155" s="2" t="n">
+        <v>36434</v>
       </c>
       <c r="B155" t="n">
         <v>59.47910239613214</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>154</v>
+      <c r="A156" s="2" t="n">
+        <v>36465</v>
       </c>
       <c r="B156" t="n">
         <v>34.27332961913773</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>155</v>
+      <c r="A157" s="2" t="n">
+        <v>36495</v>
       </c>
       <c r="B157" t="n">
         <v>-69.98360918379602</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>156</v>
+      <c r="A158" s="2" t="n">
+        <v>36526</v>
       </c>
       <c r="B158" t="n">
         <v>-99.04168004691985</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>157</v>
+      <c r="A159" s="2" t="n">
+        <v>36557</v>
       </c>
       <c r="B159" t="n">
         <v>-62.94309648910541</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>158</v>
+      <c r="A160" s="2" t="n">
+        <v>36586</v>
       </c>
       <c r="B160" t="n">
         <v>-52.52849146798076</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>159</v>
+      <c r="A161" s="2" t="n">
+        <v>36617</v>
       </c>
       <c r="B161" t="n">
         <v>-1.714288756887004</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>160</v>
+      <c r="A162" s="2" t="n">
+        <v>36647</v>
       </c>
       <c r="B162" t="n">
         <v>-169.6496879644143</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>161</v>
+      <c r="A163" s="2" t="n">
+        <v>36678</v>
       </c>
       <c r="B163" t="n">
         <v>-335.0120091671688</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>162</v>
+      <c r="A164" s="2" t="n">
+        <v>36708</v>
       </c>
       <c r="B164" t="n">
         <v>-305.5927933321942</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>163</v>
+      <c r="A165" s="2" t="n">
+        <v>36739</v>
       </c>
       <c r="B165" t="n">
         <v>-311.5006899300541</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>164</v>
+      <c r="A166" s="2" t="n">
+        <v>36770</v>
       </c>
       <c r="B166" t="n">
         <v>-328.4436371450027</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>165</v>
+      <c r="A167" s="2" t="n">
+        <v>36800</v>
       </c>
       <c r="B167" t="n">
         <v>-334.4251068127894</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>166</v>
+      <c r="A168" s="2" t="n">
+        <v>36831</v>
       </c>
       <c r="B168" t="n">
         <v>-314.0895182281215</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>167</v>
+      <c r="A169" s="2" t="n">
+        <v>36861</v>
       </c>
       <c r="B169" t="n">
         <v>-271.8304527159542</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>168</v>
+      <c r="A170" s="2" t="n">
+        <v>36892</v>
       </c>
       <c r="B170" t="n">
         <v>-240.8468532338301</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>169</v>
+      <c r="A171" s="2" t="n">
+        <v>36923</v>
       </c>
       <c r="B171" t="n">
         <v>-272.071415979054</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>170</v>
+      <c r="A172" s="2" t="n">
+        <v>36951</v>
       </c>
       <c r="B172" t="n">
         <v>-265.4314291621041</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>171</v>
+      <c r="A173" s="2" t="n">
+        <v>36982</v>
       </c>
       <c r="B173" t="n">
         <v>-261.9975673954944</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>172</v>
+      <c r="A174" s="2" t="n">
+        <v>37012</v>
       </c>
       <c r="B174" t="n">
         <v>-269.8177861600102</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>173</v>
+      <c r="A175" s="2" t="n">
+        <v>37043</v>
       </c>
       <c r="B175" t="n">
         <v>-279.2145128012585</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>174</v>
+      <c r="A176" s="2" t="n">
+        <v>37073</v>
       </c>
       <c r="B176" t="n">
         <v>-320.1388681508579</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>175</v>
+      <c r="A177" s="2" t="n">
+        <v>37104</v>
       </c>
       <c r="B177" t="n">
         <v>-275.0618844592314</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>176</v>
+      <c r="A178" s="2" t="n">
+        <v>37135</v>
       </c>
       <c r="B178" t="n">
         <v>-47.84681113647525</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>177</v>
+      <c r="A179" s="2" t="n">
+        <v>37165</v>
       </c>
       <c r="B179" t="n">
         <v>33.82702427230859</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>178</v>
+      <c r="A180" s="2" t="n">
+        <v>37196</v>
       </c>
       <c r="B180" t="n">
         <v>104.2352060269517</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>179</v>
+      <c r="A181" s="2" t="n">
+        <v>37226</v>
       </c>
       <c r="B181" t="n">
         <v>160.534689694087</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>180</v>
+      <c r="A182" s="2" t="n">
+        <v>37257</v>
       </c>
       <c r="B182" t="n">
         <v>249.0470063331115</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>181</v>
+      <c r="A183" s="2" t="n">
+        <v>37288</v>
       </c>
       <c r="B183" t="n">
         <v>150.7694487691757</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>182</v>
+      <c r="A184" s="2" t="n">
+        <v>37316</v>
       </c>
       <c r="B184" t="n">
         <v>184.6985860885698</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>183</v>
+      <c r="A185" s="2" t="n">
+        <v>37347</v>
       </c>
       <c r="B185" t="n">
         <v>184.0220188710791</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>184</v>
+      <c r="A186" s="2" t="n">
+        <v>37377</v>
       </c>
       <c r="B186" t="n">
         <v>101.4201454742629</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>185</v>
+      <c r="A187" s="2" t="n">
+        <v>37408</v>
       </c>
       <c r="B187" t="n">
         <v>130.4760909292494</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>186</v>
+      <c r="A188" s="2" t="n">
+        <v>37438</v>
       </c>
       <c r="B188" t="n">
         <v>13.3095408877067</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>187</v>
+      <c r="A189" s="2" t="n">
+        <v>37469</v>
       </c>
       <c r="B189" t="n">
         <v>86.16192796567879</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>188</v>
+      <c r="A190" s="2" t="n">
+        <v>37500</v>
       </c>
       <c r="B190" t="n">
         <v>44.42954175533854</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>189</v>
+      <c r="A191" s="2" t="n">
+        <v>37530</v>
       </c>
       <c r="B191" t="n">
         <v>24.64959644021935</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>190</v>
+      <c r="A192" s="2" t="n">
+        <v>37561</v>
       </c>
       <c r="B192" t="n">
         <v>-101.5181266094831</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>191</v>
+      <c r="A193" s="2" t="n">
+        <v>37591</v>
       </c>
       <c r="B193" t="n">
         <v>-188.3869179898738</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>192</v>
+      <c r="A194" s="2" t="n">
+        <v>37622</v>
       </c>
       <c r="B194" t="n">
         <v>-230.466354598186</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>193</v>
+      <c r="A195" s="2" t="n">
+        <v>37653</v>
       </c>
       <c r="B195" t="n">
         <v>-190.1051548789183</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>194</v>
+      <c r="A196" s="2" t="n">
+        <v>37681</v>
       </c>
       <c r="B196" t="n">
         <v>-185.7912727618336</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>195</v>
+      <c r="A197" s="2" t="n">
+        <v>37712</v>
       </c>
       <c r="B197" t="n">
         <v>-244.414770053035</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>196</v>
+      <c r="A198" s="2" t="n">
+        <v>37742</v>
       </c>
       <c r="B198" t="n">
         <v>-294.4133693841329</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>197</v>
+      <c r="A199" s="2" t="n">
+        <v>37773</v>
       </c>
       <c r="B199" t="n">
         <v>-287.3269537839356</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>198</v>
+      <c r="A200" s="2" t="n">
+        <v>37803</v>
       </c>
       <c r="B200" t="n">
         <v>-286.148212176562</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>199</v>
+      <c r="A201" s="2" t="n">
+        <v>37834</v>
       </c>
       <c r="B201" t="n">
         <v>-314.6152274874419</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>200</v>
+      <c r="A202" s="2" t="n">
+        <v>37865</v>
       </c>
       <c r="B202" t="n">
         <v>-330.0994295996742</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>201</v>
+      <c r="A203" s="2" t="n">
+        <v>37895</v>
       </c>
       <c r="B203" t="n">
         <v>-307.2203902312144</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>202</v>
+      <c r="A204" s="2" t="n">
+        <v>37926</v>
       </c>
       <c r="B204" t="n">
         <v>-290.6051806924164</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>203</v>
+      <c r="A205" s="2" t="n">
+        <v>37956</v>
       </c>
       <c r="B205" t="n">
         <v>-66.88375105031312</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>204</v>
+      <c r="A206" s="2" t="n">
+        <v>37987</v>
       </c>
       <c r="B206" t="n">
         <v>140.1156818661975</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>205</v>
+      <c r="A207" s="2" t="n">
+        <v>38018</v>
       </c>
       <c r="B207" t="n">
         <v>134.149867265158</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>206</v>
+      <c r="A208" s="2" t="n">
+        <v>38047</v>
       </c>
       <c r="B208" t="n">
         <v>108.1145793855571</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>207</v>
+      <c r="A209" s="2" t="n">
+        <v>38078</v>
       </c>
       <c r="B209" t="n">
         <v>151.1849739857001</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>208</v>
+      <c r="A210" s="2" t="n">
+        <v>38108</v>
       </c>
       <c r="B210" t="n">
         <v>144.6162853835079</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>209</v>
+      <c r="A211" s="2" t="n">
+        <v>38139</v>
       </c>
       <c r="B211" t="n">
         <v>109.3612915047139</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>210</v>
+      <c r="A212" s="2" t="n">
+        <v>38169</v>
       </c>
       <c r="B212" t="n">
         <v>83.99538136198797</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>211</v>
+      <c r="A213" s="2" t="n">
+        <v>38200</v>
       </c>
       <c r="B213" t="n">
         <v>61.05030214318722</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>212</v>
+      <c r="A214" s="2" t="n">
+        <v>38231</v>
       </c>
       <c r="B214" t="n">
         <v>24.1199236012586</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>213</v>
+      <c r="A215" s="2" t="n">
+        <v>38261</v>
       </c>
       <c r="B215" t="n">
         <v>10.64082666308904</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>214</v>
+      <c r="A216" s="2" t="n">
+        <v>38292</v>
       </c>
       <c r="B216" t="n">
         <v>-6.291508632759061</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>215</v>
+      <c r="A217" s="2" t="n">
+        <v>38322</v>
       </c>
       <c r="B217" t="n">
         <v>-150.6775102779503</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>216</v>
+      <c r="A218" s="2" t="n">
+        <v>38353</v>
       </c>
       <c r="B218" t="n">
         <v>-215.4591458001143</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>217</v>
+      <c r="A219" s="2" t="n">
+        <v>38384</v>
       </c>
       <c r="B219" t="n">
         <v>-204.0954300217731</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>218</v>
+      <c r="A220" s="2" t="n">
+        <v>38412</v>
       </c>
       <c r="B220" t="n">
         <v>-156.3758576785846</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>219</v>
+      <c r="A221" s="2" t="n">
+        <v>38443</v>
       </c>
       <c r="B221" t="n">
         <v>-212.7657169649275</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>220</v>
+      <c r="A222" s="2" t="n">
+        <v>38473</v>
       </c>
       <c r="B222" t="n">
         <v>-320.8474258264694</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>221</v>
+      <c r="A223" s="2" t="n">
+        <v>38504</v>
       </c>
       <c r="B223" t="n">
         <v>-296.2228094035592</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>222</v>
+      <c r="A224" s="2" t="n">
+        <v>38534</v>
       </c>
       <c r="B224" t="n">
         <v>-277.4706520277846</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>223</v>
+      <c r="A225" s="2" t="n">
+        <v>38565</v>
       </c>
       <c r="B225" t="n">
         <v>-303.6629864316074</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>224</v>
+      <c r="A226" s="2" t="n">
+        <v>38596</v>
       </c>
       <c r="B226" t="n">
         <v>-302.2001423795417</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>225</v>
+      <c r="A227" s="2" t="n">
+        <v>38626</v>
       </c>
       <c r="B227" t="n">
         <v>-293.4524689486856</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>226</v>
+      <c r="A228" s="2" t="n">
+        <v>38657</v>
       </c>
       <c r="B228" t="n">
         <v>-296.262799940723</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>227</v>
+      <c r="A229" s="2" t="n">
+        <v>38687</v>
       </c>
       <c r="B229" t="n">
         <v>-327.0034640912903</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>228</v>
+      <c r="A230" s="2" t="n">
+        <v>38718</v>
       </c>
       <c r="B230" t="n">
         <v>-153.6982191382928</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>229</v>
+      <c r="A231" s="2" t="n">
+        <v>38749</v>
       </c>
       <c r="B231" t="n">
         <v>73.47458348665475</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>230</v>
+      <c r="A232" s="2" t="n">
+        <v>38777</v>
       </c>
       <c r="B232" t="n">
         <v>136.8500101409411</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>231</v>
+      <c r="A233" s="2" t="n">
+        <v>38808</v>
       </c>
       <c r="B233" t="n">
         <v>156.6430434672664</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>232</v>
+      <c r="A234" s="2" t="n">
+        <v>38838</v>
       </c>
       <c r="B234" t="n">
         <v>101.3168253214254</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>233</v>
+      <c r="A235" s="2" t="n">
+        <v>38869</v>
       </c>
       <c r="B235" t="n">
         <v>117.6667701524034</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>234</v>
+      <c r="A236" s="2" t="n">
+        <v>38899</v>
       </c>
       <c r="B236" t="n">
         <v>165.7407029459418</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>235</v>
+      <c r="A237" s="2" t="n">
+        <v>38930</v>
       </c>
       <c r="B237" t="n">
         <v>101.048590538526</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>236</v>
+      <c r="A238" s="2" t="n">
+        <v>38961</v>
       </c>
       <c r="B238" t="n">
         <v>26.21918437875586</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>237</v>
+      <c r="A239" s="2" t="n">
+        <v>38991</v>
       </c>
       <c r="B239" t="n">
         <v>75.74667097600165</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>238</v>
+      <c r="A240" s="2" t="n">
+        <v>39022</v>
       </c>
       <c r="B240" t="n">
         <v>25.28466898841724</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>239</v>
+      <c r="A241" s="2" t="n">
+        <v>39052</v>
       </c>
       <c r="B241" t="n">
         <v>39.32051431561851</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>240</v>
+      <c r="A242" s="2" t="n">
+        <v>39083</v>
       </c>
       <c r="B242" t="n">
         <v>-99.74505102909785</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>241</v>
+      <c r="A243" s="2" t="n">
+        <v>39114</v>
       </c>
       <c r="B243" t="n">
         <v>-129.880084063272</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>242</v>
+      <c r="A244" s="2" t="n">
+        <v>39142</v>
       </c>
       <c r="B244" t="n">
         <v>-71.0955308859026</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>243</v>
+      <c r="A245" s="2" t="n">
+        <v>39173</v>
       </c>
       <c r="B245" t="n">
         <v>-153.9591797169117</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>244</v>
+      <c r="A246" s="2" t="n">
+        <v>39203</v>
       </c>
       <c r="B246" t="n">
         <v>-297.840478262307</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>245</v>
+      <c r="A247" s="2" t="n">
+        <v>39234</v>
       </c>
       <c r="B247" t="n">
         <v>-302.2205925566485</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>246</v>
+      <c r="A248" s="2" t="n">
+        <v>39264</v>
       </c>
       <c r="B248" t="n">
         <v>-283.0118307601758</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>247</v>
+      <c r="A249" s="2" t="n">
+        <v>39295</v>
       </c>
       <c r="B249" t="n">
         <v>-330.5364910121956</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
-        <v>248</v>
+      <c r="A250" s="2" t="n">
+        <v>39326</v>
       </c>
       <c r="B250" t="n">
         <v>-324.3996094520826</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="n">
-        <v>249</v>
+      <c r="A251" s="2" t="n">
+        <v>39356</v>
       </c>
       <c r="B251" t="n">
         <v>-322.5570674559855</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="n">
-        <v>250</v>
+      <c r="A252" s="2" t="n">
+        <v>39387</v>
       </c>
       <c r="B252" t="n">
         <v>-304.9822276504341</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="n">
-        <v>251</v>
+      <c r="A253" s="2" t="n">
+        <v>39417</v>
       </c>
       <c r="B253" t="n">
         <v>-255.3359360965637</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="n">
-        <v>252</v>
+      <c r="A254" s="2" t="n">
+        <v>39448</v>
       </c>
       <c r="B254" t="n">
         <v>99.84845156488996</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="n">
-        <v>253</v>
+      <c r="A255" s="2" t="n">
+        <v>39479</v>
       </c>
       <c r="B255" t="n">
         <v>40.65821226301965</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="n">
-        <v>254</v>
+      <c r="A256" s="2" t="n">
+        <v>39508</v>
       </c>
       <c r="B256" t="n">
         <v>147.2381417646602</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="n">
-        <v>255</v>
+      <c r="A257" s="2" t="n">
+        <v>39539</v>
       </c>
       <c r="B257" t="n">
         <v>156.5490349131613</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="n">
-        <v>256</v>
+      <c r="A258" s="2" t="n">
+        <v>39569</v>
       </c>
       <c r="B258" t="n">
         <v>155.8411491459705</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="n">
-        <v>257</v>
+      <c r="A259" s="2" t="n">
+        <v>39600</v>
       </c>
       <c r="B259" t="n">
         <v>101.3492318597881</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
-        <v>258</v>
+      <c r="A260" s="2" t="n">
+        <v>39630</v>
       </c>
       <c r="B260" t="n">
         <v>179.025989723355</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
-        <v>259</v>
+      <c r="A261" s="2" t="n">
+        <v>39661</v>
       </c>
       <c r="B261" t="n">
         <v>95.09470170989766</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
-        <v>260</v>
+      <c r="A262" s="2" t="n">
+        <v>39692</v>
       </c>
       <c r="B262" t="n">
         <v>103.6236935510747</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="n">
-        <v>261</v>
+      <c r="A263" s="2" t="n">
+        <v>39722</v>
       </c>
       <c r="B263" t="n">
         <v>97.88093246542883</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="n">
-        <v>262</v>
+      <c r="A264" s="2" t="n">
+        <v>39753</v>
       </c>
       <c r="B264" t="n">
         <v>45.09305019948084</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="n">
-        <v>263</v>
+      <c r="A265" s="2" t="n">
+        <v>39783</v>
       </c>
       <c r="B265" t="n">
         <v>-7.536354602837903</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="n">
-        <v>264</v>
+      <c r="A266" s="2" t="n">
+        <v>39814</v>
       </c>
       <c r="B266" t="n">
         <v>50.38711415967295</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="n">
-        <v>265</v>
+      <c r="A267" s="2" t="n">
+        <v>39845</v>
       </c>
       <c r="B267" t="n">
         <v>44.271629166571</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="n">
-        <v>266</v>
+      <c r="A268" s="2" t="n">
+        <v>39873</v>
       </c>
       <c r="B268" t="n">
         <v>86.50194538035659</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="n">
-        <v>267</v>
+      <c r="A269" s="2" t="n">
+        <v>39904</v>
       </c>
       <c r="B269" t="n">
         <v>33.82826772926147</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="n">
-        <v>268</v>
+      <c r="A270" s="2" t="n">
+        <v>39934</v>
       </c>
       <c r="B270" t="n">
         <v>-41.94295777760391</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="n">
-        <v>269</v>
+      <c r="A271" s="2" t="n">
+        <v>39965</v>
       </c>
       <c r="B271" t="n">
         <v>-251.8593487715839</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="n">
-        <v>270</v>
+      <c r="A272" s="2" t="n">
+        <v>39995</v>
       </c>
       <c r="B272" t="n">
         <v>-305.7891144071428</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
-        <v>271</v>
+      <c r="A273" s="2" t="n">
+        <v>40026</v>
       </c>
       <c r="B273" t="n">
         <v>-310.5868565046678</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="n">
-        <v>272</v>
+      <c r="A274" s="2" t="n">
+        <v>40057</v>
       </c>
       <c r="B274" t="n">
         <v>-308.3367721647172</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
-        <v>273</v>
+      <c r="A275" s="2" t="n">
+        <v>40087</v>
       </c>
       <c r="B275" t="n">
         <v>-304.3006786388829</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
-        <v>274</v>
+      <c r="A276" s="2" t="n">
+        <v>40118</v>
       </c>
       <c r="B276" t="n">
         <v>-306.9072550242821</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="n">
-        <v>275</v>
+      <c r="A277" s="2" t="n">
+        <v>40148</v>
       </c>
       <c r="B277" t="n">
         <v>-285.6603866826451</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="n">
-        <v>276</v>
+      <c r="A278" s="2" t="n">
+        <v>40179</v>
       </c>
       <c r="B278" t="n">
         <v>-274.4863442630312</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="n">
-        <v>277</v>
+      <c r="A279" s="2" t="n">
+        <v>40210</v>
       </c>
       <c r="B279" t="n">
         <v>-264.1776704823304</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="n">
-        <v>278</v>
+      <c r="A280" s="2" t="n">
+        <v>40238</v>
       </c>
       <c r="B280" t="n">
         <v>-273.9114807114021</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="n">
-        <v>279</v>
+      <c r="A281" s="2" t="n">
+        <v>40269</v>
       </c>
       <c r="B281" t="n">
         <v>-265.0273877564819</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="n">
-        <v>280</v>
+      <c r="A282" s="2" t="n">
+        <v>40299</v>
       </c>
       <c r="B282" t="n">
         <v>-254.0636024008105</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="n">
-        <v>281</v>
+      <c r="A283" s="2" t="n">
+        <v>40330</v>
       </c>
       <c r="B283" t="n">
         <v>-251.1574823111883</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="n">
-        <v>282</v>
+      <c r="A284" s="2" t="n">
+        <v>40360</v>
       </c>
       <c r="B284" t="n">
         <v>-131.2488995168628</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="n">
-        <v>283</v>
+      <c r="A285" s="2" t="n">
+        <v>40391</v>
       </c>
       <c r="B285" t="n">
         <v>192.2366619156905</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="n">
-        <v>284</v>
+      <c r="A286" s="2" t="n">
+        <v>40422</v>
       </c>
       <c r="B286" t="n">
         <v>132.7957710830466</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="n">
-        <v>285</v>
+      <c r="A287" s="2" t="n">
+        <v>40452</v>
       </c>
       <c r="B287" t="n">
         <v>115.6970087454984</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="n">
-        <v>286</v>
+      <c r="A288" s="2" t="n">
+        <v>40483</v>
       </c>
       <c r="B288" t="n">
         <v>123.1573390346294</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="n">
-        <v>287</v>
+      <c r="A289" s="2" t="n">
+        <v>40513</v>
       </c>
       <c r="B289" t="n">
         <v>134.3483059440345</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="n">
-        <v>288</v>
+      <c r="A290" s="2" t="n">
+        <v>40544</v>
       </c>
       <c r="B290" t="n">
         <v>73.51086780565188</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="n">
-        <v>289</v>
+      <c r="A291" s="2" t="n">
+        <v>40575</v>
       </c>
       <c r="B291" t="n">
         <v>64.42798351300895</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="n">
-        <v>290</v>
+      <c r="A292" s="2" t="n">
+        <v>40603</v>
       </c>
       <c r="B292" t="n">
         <v>93.88598061874248</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="n">
-        <v>291</v>
+      <c r="A293" s="2" t="n">
+        <v>40634</v>
       </c>
       <c r="B293" t="n">
         <v>90.69580520458067</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="n">
-        <v>292</v>
+      <c r="A294" s="2" t="n">
+        <v>40664</v>
       </c>
       <c r="B294" t="n">
         <v>54.52544572673612</v>
